--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Shinyanga.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Shinyanga.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Tanzania application/Input sheets Tanzania/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankapetravic/Documents/OPTIMA/Optima nutrition/Tanzania/Input sheets/input v2/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="460" windowWidth="17520" windowHeight="14260" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="22460" yWindow="3580" windowWidth="17520" windowHeight="14260" tabRatio="500" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -934,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="86">
   <si>
     <t>indicators</t>
   </si>
@@ -1177,6 +1177,21 @@
   </si>
   <si>
     <t>Vitamin A fortification of food</t>
+  </si>
+  <si>
+    <t>IYCF</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure with IYCF)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure without IYCF)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with IYCF and supplementation)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with neither IYCF nor supplementation)</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1291,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1314,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1371,7 +1392,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,6 +1453,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4237,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4348,6 +4371,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4358,7 +4461,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4427,13 +4530,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.82</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4647,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4790,6 +4905,18 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="37">
+        <v>10.49</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -6101,7 +6228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
